--- a/CashFlow/TER_cashflow.xlsx
+++ b/CashFlow/TER_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>881000000.0</v>
+        <v>-60126000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>802000000.0</v>
+        <v>-8438000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>566735000.0</v>
+        <v>3733000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>364039000.0</v>
+        <v>-28689000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>158509000.0</v>
+        <v>-8673000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-27408000.0</v>
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>645000000.0</v>
+        <v>97919000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>598000000.0</v>
+        <v>73167000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>492472000.0</v>
+        <v>110029000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>377703000.0</v>
+        <v>177281000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>232602000.0</v>
+        <v>67279000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>49279000.0</v>
